--- a/tests/resources/data/test.xlsx
+++ b/tests/resources/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignaciotalaveracepeda/Documents/RecognAI/biome-text/tests/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18088911-0372-E54E-8E11-A7ED4995F7EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20856F5-0809-EC4E-B16E-9A801973CEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:E1258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
